--- a/congress twitter best matches w manual search.xlsx
+++ b/congress twitter best matches w manual search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Archives\Trabajo\GECE - LEEX\Kristian\Congresistas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F2DCF6-5D5F-453A-8942-9019B68B8428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247FDFE-D5F6-471C-AEC6-CF1C502CD01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
